--- a/Моделирование/лаб 2/Книга2.xlsx
+++ b/Моделирование/лаб 2/Книга2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\study\labs7\Моделирование\лаб 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC7384A-07A8-4DA9-A7CB-9B8DCD977260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D37F4-7E82-4BC9-AF6D-A12A50C4769B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="60" windowWidth="17280" windowHeight="8880" xr2:uid="{CE263BD3-4EFA-4435-87E6-6CCC81404E64}"/>
+    <workbookView xWindow="-108" yWindow="-12" windowWidth="17280" windowHeight="8880" xr2:uid="{CE263BD3-4EFA-4435-87E6-6CCC81404E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Реальная 0.936</t>
   </si>
@@ -55,25 +55,10 @@
     <t>AVE.TIME</t>
   </si>
   <si>
-    <t>1.071</t>
+    <t>util</t>
   </si>
   <si>
-    <t>0.151</t>
-  </si>
-  <si>
-    <t>0.162</t>
-  </si>
-  <si>
-    <t>121.660</t>
-  </si>
-  <si>
-    <t>21.362</t>
-  </si>
-  <si>
-    <t>95.023</t>
-  </si>
-  <si>
-    <t>Система</t>
+    <t>AVE CONT</t>
   </si>
 </sst>
 </file>
@@ -82,9 +67,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,12 +110,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,7 +468,1552 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$58:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$59:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D691-48D0-A1E4-9AAF4653FAA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$58:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$60:$F$60</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D691-48D0-A1E4-9AAF4653FAA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$58:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$61:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D691-48D0-A1E4-9AAF4653FAA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="444527327"/>
+        <c:axId val="444533567"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444527327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444533567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444533567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.05"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444527327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$I$58:$L$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$59:$L$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5980000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A382-4822-B064-520E856D6F54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$I$58:$L$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$60:$L$60</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A382-4822-B064-520E856D6F54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$I$58:$L$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$61:$L$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39300000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A382-4822-B064-520E856D6F54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="447446063"/>
+        <c:axId val="447448559"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="447446063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447448559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="447448559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447446063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36008070072644793"/>
+          <c:y val="0.8826619114510097"/>
+          <c:w val="0.27983859854710402"/>
+          <c:h val="7.6525026655249975E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$P$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$Q$58:$T$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$Q$59:$T$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>121.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>383.58300000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>646.90200000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>938.18299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B901-4843-BF06-F8E719D95D92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$P$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$Q$58:$T$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$Q$60:$T$60</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21.361999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.036999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.268000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.312000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B901-4843-BF06-F8E719D95D92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$P$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$Q$58:$T$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$Q$61:$T$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>95.022999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124.758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199.06299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199.244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B901-4843-BF06-F8E719D95D92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="621391391"/>
+        <c:axId val="621382239"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="621391391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621382239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="621382239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="950"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621391391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1013,6 +2550,1554 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1117,15 +4202,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>133004</xdr:colOff>
+      <xdr:colOff>350719</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>169817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>377393</xdr:colOff>
+      <xdr:colOff>595108</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>122061</xdr:rowOff>
+      <xdr:rowOff>154718</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1148,8 +4233,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7503622" y="5360324"/>
-          <a:ext cx="6340389" cy="1605882"/>
+          <a:off x="7731233" y="5536474"/>
+          <a:ext cx="6340389" cy="1650415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1204,16 +4289,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>178724</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>393876</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>316424</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>531576</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>160167</xdr:rowOff>
+      <xdr:rowOff>7767</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1236,14 +4321,122 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8158942" y="8932025"/>
-          <a:ext cx="6233700" cy="1674469"/>
+          <a:off x="13867829" y="8739692"/>
+          <a:ext cx="6233700" cy="1667134"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>49306</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE66A27E-52D9-4F15-9AB4-AFBF3A9642BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>461683</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C6E0209-44F4-4329-91B4-F789AFD5D5B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>318248</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D67749-A9F8-415F-9E79-06A28B60FBDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1546,10 +4739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58BCB0B-2579-4AAE-8474-983212FFEB91}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="O15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X72" sqref="X72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1581,50 +4774,50 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>118.68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>160.40600000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>16</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>203.655</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>64</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>282.74099999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>400</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>309.29199999999997</v>
       </c>
     </row>
@@ -1651,73 +4844,55 @@
       <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>3</v>
-      </c>
       <c r="B26" s="2">
         <v>0.876</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
+      <c r="C26" s="2">
+        <v>1.071</v>
+      </c>
+      <c r="D26" s="2">
+        <v>121.66</v>
+      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>3</v>
-      </c>
       <c r="B27" s="2">
         <v>0.36199999999999999</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2</v>
-      </c>
+      <c r="C27" s="2">
+        <v>0.151</v>
+      </c>
+      <c r="D27" s="2">
+        <v>21.361999999999998</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>3</v>
-      </c>
       <c r="B28" s="2">
         <v>0.378</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2">
-        <v>3</v>
-      </c>
+      <c r="C28" s="2">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D28" s="2">
+        <v>95.022999999999996</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1728,10 +4903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>6</v>
-      </c>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>0.98699999999999999</v>
       </c>
@@ -1741,14 +4913,9 @@
       <c r="D35" s="2">
         <v>383.58300000000003</v>
       </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
+      <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>6</v>
-      </c>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>0.375</v>
       </c>
@@ -1758,14 +4925,9 @@
       <c r="D36" s="2">
         <v>28.036999999999999</v>
       </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
+      <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>6</v>
-      </c>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>0.38</v>
       </c>
@@ -1775,16 +4937,14 @@
       <c r="D37" s="2">
         <v>124.758</v>
       </c>
-      <c r="E37" s="2">
-        <v>3</v>
-      </c>
+      <c r="E37" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>4</v>
       </c>
@@ -1795,10 +4955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>9</v>
-      </c>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>1</v>
       </c>
@@ -1808,14 +4965,9 @@
       <c r="D42" s="2">
         <v>646.90200000000004</v>
       </c>
-      <c r="E42" s="2">
-        <v>1</v>
-      </c>
+      <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>9</v>
-      </c>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>0.378</v>
       </c>
@@ -1825,14 +4977,9 @@
       <c r="D43" s="2">
         <v>25.268000000000001</v>
       </c>
-      <c r="E43" s="2">
-        <v>2</v>
-      </c>
+      <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>9</v>
-      </c>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>0.42599999999999999</v>
       </c>
@@ -1842,16 +4989,14 @@
       <c r="D44" s="2">
         <v>199.06299999999999</v>
       </c>
-      <c r="E44" s="2">
-        <v>3</v>
-      </c>
+      <c r="E44" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>4</v>
       </c>
@@ -1862,10 +5007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>12</v>
-      </c>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>1</v>
       </c>
@@ -1875,14 +5017,9 @@
       <c r="D52" s="2">
         <v>938.18299999999999</v>
       </c>
-      <c r="E52" s="2">
-        <v>1</v>
-      </c>
+      <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>12</v>
-      </c>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>0.378</v>
       </c>
@@ -1892,14 +5029,9 @@
       <c r="D53" s="2">
         <v>25.312000000000001</v>
       </c>
-      <c r="E53" s="2">
-        <v>2</v>
-      </c>
+      <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>12</v>
-      </c>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>0.42599999999999999</v>
       </c>
@@ -1909,8 +5041,196 @@
       <c r="D54" s="2">
         <v>199.244</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C58" s="7">
         <v>3</v>
+      </c>
+      <c r="D58" s="7">
+        <v>6</v>
+      </c>
+      <c r="E58" s="7">
+        <v>9</v>
+      </c>
+      <c r="F58" s="7">
+        <v>12</v>
+      </c>
+      <c r="I58" s="7">
+        <v>3</v>
+      </c>
+      <c r="J58" s="7">
+        <v>6</v>
+      </c>
+      <c r="K58" s="7">
+        <v>9</v>
+      </c>
+      <c r="L58" s="7">
+        <v>12</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>3</v>
+      </c>
+      <c r="R58" s="7">
+        <v>6</v>
+      </c>
+      <c r="S58" s="7">
+        <v>9</v>
+      </c>
+      <c r="T58" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B59" s="7">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.876</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1.071</v>
+      </c>
+      <c r="J59" s="2">
+        <v>3.8050000000000002</v>
+      </c>
+      <c r="K59" s="2">
+        <v>6.5979999999999999</v>
+      </c>
+      <c r="L59" s="2">
+        <v>9.5980000000000008</v>
+      </c>
+      <c r="P59" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>121.66</v>
+      </c>
+      <c r="R59" s="2">
+        <v>383.58300000000003</v>
+      </c>
+      <c r="S59" s="2">
+        <v>646.90200000000004</v>
+      </c>
+      <c r="T59" s="2">
+        <v>938.18299999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B60" s="7">
+        <v>2</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="H60" s="7">
+        <v>2</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0.151</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="P60" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>21.361999999999998</v>
+      </c>
+      <c r="R60" s="2">
+        <v>28.036999999999999</v>
+      </c>
+      <c r="S60" s="2">
+        <v>25.268000000000001</v>
+      </c>
+      <c r="T60" s="2">
+        <v>25.312000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B61" s="7">
+        <v>3</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="H61" s="7">
+        <v>3</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="P61" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>95.022999999999996</v>
+      </c>
+      <c r="R61" s="2">
+        <v>124.758</v>
+      </c>
+      <c r="S61" s="2">
+        <v>199.06299999999999</v>
+      </c>
+      <c r="T61" s="2">
+        <v>199.244</v>
       </c>
     </row>
   </sheetData>
